--- a/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD53C2-75B4-4241-AC1C-495F34FE264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53992B-1C39-4916-90F8-A360942EAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32805" yWindow="675" windowWidth="21690" windowHeight="13380" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,35 +115,6 @@
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -319,6 +290,30 @@
 ORDER BY 
     sf.file_name ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT cf.file_name) AS "Case Files",
+    COUNT(DISTINCT sf.file_name) AS "Study Files"
+FROM 
+    df_program p
+JOIN 
+    df_study st ON TRIM(LOWER(p.program_acronym)) = TRIM(LOWER(st."program.program_acronym"))
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    TRIM(st.clinical_study_designation) = 'PRECINCT01' 
+    AND LOWER(st.clinical_study_type) = 'clinical trial';</t>
   </si>
 </sst>
 </file>
@@ -710,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -761,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -770,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -779,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>

--- a/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53992B-1C39-4916-90F8-A360942EAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872E58F-E2D9-4ADA-9D98-61D9BC8F450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,18 +74,18 @@
     diag.disease_term AS "Diagnosis",
     diag.stage_of_disease AS "Stage Of Disease",
     CASE 
-    WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
-    THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
-    ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
-END AS "Age", 
+        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
+        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
+        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
+    END AS "Age", 
     COALESCE(TRIM(dmg.sex), '') AS "Sex",   
     COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
     COALESCE(
-        CASE 
-            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(dmg.weight AS INT)
+         CASE 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
             ELSE dmg.weight 
         END, 
-    '') AS "Weight (kg)",        
+    '') AS "Weight (kg)",                 
     COALESCE(diag.best_response, '') AS "Response to Treatment",  
     COALESCE(coh.cohort_description, '') AS "Cohort"  
 FROM 
@@ -96,22 +96,13 @@
     df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
 JOIN 
     df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN
-    df_cohort coh ON c."cohort.cohort_id" = coh.cohort_record_id
+    df_cohort coh ON c."cohort.cohort_record_id" = coh.cohort_record_id
 WHERE
-    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
+    st.clinical_study_designation = 'PRECINCT01' 
+    AND st.clinical_study_type = 'Clinical Trial'
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
@@ -254,16 +245,32 @@
         WHEN sf.file_name LIKE '%.xlsx' THEN 'xlsx'
         ELSE 'Unknown'
     END AS "Format",
-    CASE     
-        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
-            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN sf.file_size &gt;= 1024 THEN 
-            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
-        ELSE 
-            ROUND(sf.file_size, 2) || ' Bytes' 
-    END AS "Size",
+      CASE     
+    WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN sf.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / 1024.0, 2) = CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(sf.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(sf.file_size, 2) = CAST(ROUND(sf.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(sf.file_size, 2) || ' Bytes'
+        END
+END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
     df_case_file cf
@@ -297,23 +304,30 @@
     COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
     COUNT(DISTINCT c.case_record_id) AS "Cases",
     COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",
-    COUNT(DISTINCT sf.file_name) AS "Study Files"
+    COUNT(DISTINCT cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files" 
 FROM 
     df_program p
 JOIN 
-    df_study st ON TRIM(LOWER(p.program_acronym)) = TRIM(LOWER(st."program.program_acronym"))
+    df_study st ON p.program_acronym = st."program.program_acronym"
 JOIN 
     df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
 JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+JOIN 
     df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-    TRIM(st.clinical_study_designation) = 'PRECINCT01' 
-    AND LOWER(st.clinical_study_type) = 'clinical trial';</t>
+    st.clinical_study_designation = 'PRECINCT01';</t>
   </si>
 </sst>
 </file>
@@ -705,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872E58F-E2D9-4ADA-9D98-61D9BC8F450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F21E4-AA36-4087-8D7F-C5713C68987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,13 +321,11 @@
 JOIN 
     df_sample smp ON smp."case.case_record_id" = c.case_record_id
 LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-    st.clinical_study_designation = 'PRECINCT01';</t>
+    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial';</t>
   </si>
 </sst>
 </file>
@@ -719,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F21E4-AA36-4087-8D7F-C5713C68987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF17215-E150-466B-A413-BDFDC6E62ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>WebExcel</t>
   </si>
@@ -64,6 +64,182 @@
   </si>
   <si>
     <t>TC01_ICDC_PRECINCT01_StudyType-ClinicalTrial_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files" 
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+LEFT JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+LEFT JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."diagnosis.diagnosis_id" = diag.diagnosis_record_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+   st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial';</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    c.case_record_id AS "Case ID",
+    COALESCE(dmg.breed, '') AS "Breed",
+    COALESCE(diag.disease_term, '') AS "Diagnosis",
+    COALESCE(smp.sample_site, '') AS "Sample Site",
+    COALESCE(smp.summarized_sample_type, '') AS "Sample Type",
+    COALESCE(smp.specific_sample_pathology, '') AS "Pathology/Morphology",
+    COALESCE(smp.tumor_grade, '') AS "Tumor Grade",
+    COALESCE(smp.sample_chronology, '') AS "Sample Chronology",
+    COALESCE(smp.percentage_tumor, '') AS "Percentage Tumor",
+    COALESCE(smp.necropsy_sample, '') AS "Necropsy Sample",
+    COALESCE(smp.sample_preservation, '') AS "Sample Preservation"
+FROM 
+    df_sample smp
+JOIN 
+    df_case c ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
+LEFT JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_program p ON st."program.program_acronym" = p.program_acronym
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'PRECINCT01' 
+    AND st.clinical_study_type = 'Clinical Trial'
+ORDER BY 
+    smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
+    CASE
+        WHEN LOWER(cf.file_name) LIKE '%.bai' THEN 'bai'
+        WHEN LOWER(cf.file_name) LIKE '%.bam' THEN 'bam'
+        WHEN LOWER(cf.file_name) LIKE '%.csv' THEN 'csv'
+        WHEN LOWER(cf.file_name) LIKE '%.doc' THEN 'doc'
+        WHEN LOWER(cf.file_name) LIKE '%.docx' THEN 'docx'
+        WHEN LOWER(cf.file_name) LIKE '%.gz' THEN 'gz'
+        WHEN LOWER(cf.file_name) LIKE '%.pdf' THEN 'pdf'
+        WHEN LOWER(cf.file_name) LIKE '%.rtf' THEN 'rtf'
+        WHEN LOWER(cf.file_name) LIKE '%.tbi' THEN 'tbi'
+        WHEN LOWER(cf.file_name) LIKE '%.tif' THEN 'tif'
+        WHEN LOWER(cf.file_name) LIKE '%.xls' THEN 'xls'
+        WHEN LOWER(cf.file_name) LIKE '%.xlsx' THEN 'xlsx'
+        ELSE 'Unknown'
+    END AS "Format",
+    cf.file_type AS "File Type",
+       CASE     
+    WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN cf.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN cf.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(cf.file_size, 2) || ' Bytes'
+        END
+    END AS "Size",
+    CASE 
+        WHEN smp.sample_id IS NOT NULL THEN 'sample'
+        WHEN c.case_record_id IS NOT NULL THEN 'diagnosis'
+        ELSE 'Unknown'
+    END AS "Association",
+    cf.file_description AS "Description",
+    smp.sample_id AS "Sample ID",
+    c.case_record_id AS "Case ID",
+    dmg.breed AS "Breed",
+    diag.disease_term AS "Diagnosis"
+FROM 
+    df_case_file cf
+LEFT JOIN 
+    df_sample smp ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_diagnosis diag ON cf."diagnosis.diagnosis_id" = diag.diagnosis_record_id
+LEFT JOIN 
+    df_case c ON (smp."case.case_record_id" = c.case_record_id OR diag."case.case_record_id" = c.case_record_id)
+LEFT JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+LEFT JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+WHERE
+    cf."diagnosis.diagnosis_id" IS NOT NULL
+    AND st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
+ORDER BY 
+    cf.file_name ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    sf.file_name AS "File Name",
+    sf.file_type AS "File Type",
+    'study' AS "Association",
+    sf.file_description AS "Description",
+    CASE
+        WHEN sf.file_name LIKE '%.bai' THEN 'bai'
+        WHEN sf.file_name LIKE '%.bam' THEN 'bam'
+        WHEN sf.file_name LIKE '%.csv' THEN 'csv'
+        WHEN sf.file_name LIKE '%.doc' THEN 'doc'
+        WHEN sf.file_name LIKE '%.docx' THEN 'docx'
+        WHEN sf.file_name LIKE '%.gz' THEN 'gz'
+        WHEN sf.file_name LIKE '%.pdf' THEN 'pdf'
+        WHEN sf.file_name LIKE '%.rtf' THEN 'rtf'
+        WHEN sf.file_name LIKE '%.tbi' THEN 'tbi'
+        WHEN sf.file_name LIKE '%.tif' THEN 'tif'
+        WHEN sf.file_name LIKE '%.xls' THEN 'xls'
+        WHEN sf.file_name LIKE '%.xlsx' THEN 'xlsx'
+        ELSE 'Unknown'
+    END AS "Format",
+    sf.file_size AS "Size",
+    st.clinical_study_designation AS "Study Code"
+FROM 
+    df_study_file sf
+JOIN 
+    df_study st ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE
+   st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
+ORDER BY 
+    sf.file_name ASC
+LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT
@@ -92,9 +268,9 @@
     df_case c
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
+LEFT JOIN 
     df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
@@ -106,226 +282,6 @@
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    c.case_record_id AS "Case ID",
-    COALESCE(dmg.breed, '') AS "Breed",
-    COALESCE(diag.disease_term, '') AS "Diagnosis",
-    COALESCE(smp.sample_site, '') AS "Sample Site",
-    COALESCE(smp.summarized_sample_type, '') AS "Sample Type",
-    COALESCE(smp.specific_sample_pathology, '') AS "Pathology/Morphology",
-    COALESCE(smp.tumor_grade, '') AS "Tumor Grade",
-    COALESCE(smp.sample_chronology, '') AS "Sample Chronology",
-    COALESCE(smp.percentage_tumor, '') AS "Percentage Tumor",
-    COALESCE(smp.necropsy_sample, '') AS "Necropsy Sample",
-    COALESCE(smp.sample_preservation, '') AS "Sample Preservation"
-FROM 
-    df_sample smp
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-   st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
-ORDER BY 
-    smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT 
-    DISTINCT cf.file_name AS "File Name",
-    CASE
-        WHEN cf.file_name LIKE '%.bai' THEN 'bai'
-        WHEN cf.file_name LIKE '%.bam' THEN 'bam'
-        WHEN cf.file_name LIKE '%.csv' THEN 'csv'
-        WHEN cf.file_name LIKE '%.doc' THEN 'doc'
-        WHEN cf.file_name LIKE '%.docx' THEN 'docx'
-        WHEN cf.file_name LIKE '%.gz' THEN 'gz'
-        WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
-        WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
-        WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
-        WHEN cf.file_name LIKE '%.tif' THEN 'tif'
-        WHEN cf.file_name LIKE '%.xls' THEN 'xls'
-        WHEN cf.file_name LIKE '%.xlsx' THEN 'xlsx'
-        ELSE 'Unknown'
-    END AS "Format",
-    cf.file_type AS "File Type",
-    CASE     
-    WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN cf.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN cf.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(cf.file_size, 2) || ' Bytes'
-        END
-END AS "Size",
-    'sample' AS "Association",
-    cf.file_description AS "Description",
-    smp.sample_id AS "Sample ID",
-    c.case_record_id AS "Case ID",
-    dmg.breed AS "Breed",
-    diag.disease_term AS "Diagnosis"
-FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE
-    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
-ORDER BY 
-    cf.file_name ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    sf.file_name AS "File Name",
-    sf.file_type AS "File Type",
-    'study' AS "Association",
-    sf.file_description AS "Description",
-    CASE
-        WHEN sf.file_name LIKE '%.bai' THEN 'bai'
-        WHEN sf.file_name LIKE '%.bam' THEN 'bam'
-        WHEN sf.file_name LIKE '%.csv' THEN 'csv'
-        WHEN sf.file_name LIKE '%.doc' THEN 'doc'
-        WHEN sf.file_name LIKE '%.docx' THEN 'docx'
-        WHEN sf.file_name LIKE '%.gz' THEN 'gz'
-        WHEN sf.file_name LIKE '%.pdf' THEN 'pdf'
-        WHEN sf.file_name LIKE '%.rtf' THEN 'rtf'
-        WHEN sf.file_name LIKE '%.tbi' THEN 'tbi'
-        WHEN sf.file_name LIKE '%.tif' THEN 'tif'
-        WHEN sf.file_name LIKE '%.xls' THEN 'xls'
-        WHEN sf.file_name LIKE '%.xlsx' THEN 'xlsx'
-        ELSE 'Unknown'
-    END AS "Format",
-      CASE     
-    WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN sf.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN sf.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / 1024.0, 2) = CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(sf.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(sf.file_size, 2) = CAST(ROUND(sf.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(sf.file_size, 2) || ' Bytes'
-        END
-END AS "Size",
-    st.clinical_study_designation AS "Study Code"
-FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE
-    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial'
-ORDER BY 
-    sf.file_name ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'PRECINCT01' AND st.clinical_study_type = 'Clinical Trial';</t>
   </si>
 </sst>
 </file>
@@ -718,7 +674,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -768,16 +724,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -786,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
     </row>
